--- a/Code/Results/Cases/Case_0_231/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_231/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9873342166375089</v>
+        <v>1.044366416687426</v>
       </c>
       <c r="D2">
-        <v>1.001984396562565</v>
+        <v>1.051754987288968</v>
       </c>
       <c r="E2">
-        <v>1.002739444335636</v>
+        <v>1.051835858366668</v>
       </c>
       <c r="F2">
-        <v>1.00857747860301</v>
+        <v>1.061815470365856</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>1.009900473272097</v>
+        <v>1.049431886253281</v>
       </c>
       <c r="K2">
-        <v>1.013416154646105</v>
+        <v>1.05450561112702</v>
       </c>
       <c r="L2">
-        <v>1.014160745827373</v>
+        <v>1.054586258161316</v>
       </c>
       <c r="M2">
-        <v>1.019918595061197</v>
+        <v>1.064538506498105</v>
       </c>
       <c r="N2">
-        <v>1.011334647781347</v>
+        <v>1.050922199903281</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9939145218351343</v>
+        <v>1.045742149378772</v>
       </c>
       <c r="D3">
-        <v>1.007723741576855</v>
+        <v>1.05300963872044</v>
       </c>
       <c r="E3">
-        <v>1.008398565358656</v>
+        <v>1.053073294039902</v>
       </c>
       <c r="F3">
-        <v>1.014711255728345</v>
+        <v>1.063166637302955</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>1.014572469170604</v>
+        <v>1.050452735914316</v>
       </c>
       <c r="K3">
-        <v>1.018258740436291</v>
+        <v>1.055571836503854</v>
       </c>
       <c r="L3">
-        <v>1.018925101078132</v>
+        <v>1.055635328350022</v>
       </c>
       <c r="M3">
-        <v>1.025159300994036</v>
+        <v>1.065703017744349</v>
       </c>
       <c r="N3">
-        <v>1.016013278449916</v>
+        <v>1.051944499287927</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9980645529117848</v>
+        <v>1.046632404330529</v>
       </c>
       <c r="D4">
-        <v>1.011349939205477</v>
+        <v>1.053821801990218</v>
       </c>
       <c r="E4">
-        <v>1.011974345024055</v>
+        <v>1.05387431091859</v>
       </c>
       <c r="F4">
-        <v>1.018587747125425</v>
+        <v>1.064041456525528</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>1.017517897534574</v>
+        <v>1.051112912620486</v>
       </c>
       <c r="K4">
-        <v>1.021313283595791</v>
+        <v>1.056261517196469</v>
       </c>
       <c r="L4">
-        <v>1.021930366909205</v>
+        <v>1.05631389812942</v>
       </c>
       <c r="M4">
-        <v>1.028466893410623</v>
+        <v>1.066456516076861</v>
       </c>
       <c r="N4">
-        <v>1.018962889660007</v>
+        <v>1.052605613520744</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9997847227108166</v>
+        <v>1.047006686586925</v>
       </c>
       <c r="D5">
-        <v>1.012854472048595</v>
+        <v>1.054163314693474</v>
       </c>
       <c r="E5">
-        <v>1.01345801786265</v>
+        <v>1.054211135995032</v>
       </c>
       <c r="F5">
-        <v>1.020196397489339</v>
+        <v>1.06440935887725</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>1.018738444766813</v>
+        <v>1.051390362047623</v>
       </c>
       <c r="K5">
-        <v>1.022579418255335</v>
+        <v>1.056551404318079</v>
       </c>
       <c r="L5">
-        <v>1.023176088398494</v>
+        <v>1.056599111670253</v>
       </c>
       <c r="M5">
-        <v>1.029838383792074</v>
+        <v>1.066773285011319</v>
       </c>
       <c r="N5">
-        <v>1.020185170209315</v>
+        <v>1.052883456957891</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00007214653154</v>
+        <v>1.04706953145298</v>
       </c>
       <c r="D6">
-        <v>1.013105950390684</v>
+        <v>1.054220660905101</v>
       </c>
       <c r="E6">
-        <v>1.013706012808058</v>
+        <v>1.054267695032026</v>
       </c>
       <c r="F6">
-        <v>1.020465294829386</v>
+        <v>1.064471138912839</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>1.018942365948416</v>
+        <v>1.051436941886826</v>
       </c>
       <c r="K6">
-        <v>1.022790977624399</v>
+        <v>1.056600074507989</v>
       </c>
       <c r="L6">
-        <v>1.023384237562936</v>
+        <v>1.056646996993568</v>
       </c>
       <c r="M6">
-        <v>1.030067574502731</v>
+        <v>1.066826471881925</v>
       </c>
       <c r="N6">
-        <v>1.020389380982386</v>
+        <v>1.052930102945808</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9980876325100185</v>
+        <v>1.046637405428699</v>
       </c>
       <c r="D7">
-        <v>1.011370119802946</v>
+        <v>1.05382636498488</v>
       </c>
       <c r="E7">
-        <v>1.011994245597291</v>
+        <v>1.053878811283686</v>
       </c>
       <c r="F7">
-        <v>1.018609323197692</v>
+        <v>1.064046371946768</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.023442985510381</v>
       </c>
       <c r="J7">
-        <v>1.017534275016537</v>
+        <v>1.051116620259462</v>
       </c>
       <c r="K7">
-        <v>1.021330271312256</v>
+        <v>1.05626539089405</v>
       </c>
       <c r="L7">
-        <v>1.021947080696686</v>
+        <v>1.056317709388508</v>
       </c>
       <c r="M7">
-        <v>1.02848529284399</v>
+        <v>1.066460748762541</v>
       </c>
       <c r="N7">
-        <v>1.018979290399874</v>
+        <v>1.052609326424992</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9895812218374354</v>
+        <v>1.044831341031003</v>
       </c>
       <c r="D8">
-        <v>1.003942809401997</v>
+        <v>1.052178937991249</v>
       </c>
       <c r="E8">
-        <v>1.004670422586723</v>
+        <v>1.052253992242456</v>
       </c>
       <c r="F8">
-        <v>1.010670258909227</v>
+        <v>1.062271996856341</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>1.011496028841661</v>
+        <v>1.049776967580925</v>
       </c>
       <c r="K8">
-        <v>1.01506963639728</v>
+        <v>1.054865997819324</v>
       </c>
       <c r="L8">
-        <v>1.015787499514506</v>
+        <v>1.054940849278644</v>
       </c>
       <c r="M8">
-        <v>1.021707608837958</v>
+        <v>1.064932063894522</v>
       </c>
       <c r="N8">
-        <v>1.012932469222832</v>
+        <v>1.051267771285991</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9737009427242285</v>
+        <v>1.041649145447721</v>
       </c>
       <c r="D9">
-        <v>0.9901337225300268</v>
+        <v>1.049278291101655</v>
       </c>
       <c r="E9">
-        <v>0.9910561876928952</v>
+        <v>1.049393136725764</v>
       </c>
       <c r="F9">
-        <v>0.9959179956356944</v>
+        <v>1.059149201931629</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>1.000217836381083</v>
+        <v>1.047413299785727</v>
       </c>
       <c r="K9">
-        <v>1.003388927487132</v>
+        <v>1.052398153224373</v>
       </c>
       <c r="L9">
-        <v>1.004296058088009</v>
+        <v>1.052512634553902</v>
       </c>
       <c r="M9">
-        <v>1.009077649522031</v>
+        <v>1.062238068275243</v>
       </c>
       <c r="N9">
-        <v>1.001638260435334</v>
+        <v>1.048900746811407</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.962414910472567</v>
+        <v>1.039527660251703</v>
       </c>
       <c r="D10">
-        <v>0.9803645128550451</v>
+        <v>1.047345923567211</v>
       </c>
       <c r="E10">
-        <v>0.9814269390738498</v>
+        <v>1.047487271135893</v>
       </c>
       <c r="F10">
-        <v>0.9854865405863299</v>
+        <v>1.057069762400187</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9922033886740704</v>
+        <v>1.045835332076313</v>
       </c>
       <c r="K10">
-        <v>0.995097579113933</v>
+        <v>1.050751468326264</v>
       </c>
       <c r="L10">
-        <v>0.9961398333484056</v>
+        <v>1.050892322931897</v>
       </c>
       <c r="M10">
-        <v>1.000122879454638</v>
+        <v>1.060441732524758</v>
       </c>
       <c r="N10">
-        <v>0.993612431293307</v>
+        <v>1.04732053820685</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9573364559857344</v>
+        <v>1.038608975565838</v>
       </c>
       <c r="D11">
-        <v>0.9759808278792702</v>
+        <v>1.046509480238737</v>
       </c>
       <c r="E11">
-        <v>0.9771066739671975</v>
+        <v>1.046662298636129</v>
       </c>
       <c r="F11">
-        <v>0.9808067218478523</v>
+        <v>1.056169875254395</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.988598474866485</v>
+        <v>1.04515150093701</v>
       </c>
       <c r="K11">
-        <v>0.991370385345222</v>
+        <v>1.050038055707305</v>
       </c>
       <c r="L11">
-        <v>0.9924736360223221</v>
+        <v>1.050190320172058</v>
       </c>
       <c r="M11">
-        <v>0.9960999051450976</v>
+        <v>1.0596637816879</v>
       </c>
       <c r="N11">
-        <v>0.9900023980946253</v>
+        <v>1.046635735948893</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9554188391070709</v>
+        <v>1.038267720380208</v>
       </c>
       <c r="D12">
-        <v>0.9743275430525106</v>
+        <v>1.046198827334765</v>
       </c>
       <c r="E12">
-        <v>0.9754774109721327</v>
+        <v>1.046355905913463</v>
       </c>
       <c r="F12">
-        <v>0.9790418921804412</v>
+        <v>1.055835692144694</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9872375876982101</v>
+        <v>1.04489740832854</v>
       </c>
       <c r="K12">
-        <v>0.9899636873632734</v>
+        <v>1.049773001264149</v>
       </c>
       <c r="L12">
-        <v>0.9910900038996111</v>
+        <v>1.04992950245072</v>
       </c>
       <c r="M12">
-        <v>0.9945819411189715</v>
+        <v>1.059374793956056</v>
       </c>
       <c r="N12">
-        <v>0.9886395783104757</v>
+        <v>1.046381282499774</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.955831631563229</v>
+        <v>1.03834092151968</v>
       </c>
       <c r="D13">
-        <v>0.9746833422115588</v>
+        <v>1.046265461708765</v>
       </c>
       <c r="E13">
-        <v>0.9758280356033958</v>
+        <v>1.046421626489291</v>
       </c>
       <c r="F13">
-        <v>0.9794216905174069</v>
+        <v>1.055907372219209</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9875305202114552</v>
+        <v>1.044951916053831</v>
       </c>
       <c r="K13">
-        <v>0.9902664646906584</v>
+        <v>1.049829859162049</v>
       </c>
       <c r="L13">
-        <v>0.9913878143963445</v>
+        <v>1.049985451619735</v>
       </c>
       <c r="M13">
-        <v>0.9949086508263576</v>
+        <v>1.059436783860783</v>
       </c>
       <c r="N13">
-        <v>0.988932926821489</v>
+        <v>1.046435867632287</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9571785980530221</v>
+        <v>1.038580767634265</v>
       </c>
       <c r="D14">
-        <v>0.9758446884617834</v>
+        <v>1.046483800788705</v>
       </c>
       <c r="E14">
-        <v>0.9769725104587528</v>
+        <v>1.046636971345522</v>
       </c>
       <c r="F14">
-        <v>0.9806613945272669</v>
+        <v>1.056142250064666</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9884864396036993</v>
+        <v>1.045130499360716</v>
       </c>
       <c r="K14">
-        <v>0.9912545715160944</v>
+        <v>1.050016147491192</v>
       </c>
       <c r="L14">
-        <v>0.9923597202598382</v>
+        <v>1.050168762192915</v>
       </c>
       <c r="M14">
-        <v>0.995974923334468</v>
+        <v>1.059639894342762</v>
       </c>
       <c r="N14">
-        <v>0.989890203728916</v>
+        <v>1.046614704547952</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9580042883807444</v>
+        <v>1.038728542642933</v>
       </c>
       <c r="D15">
-        <v>0.9765568599191286</v>
+        <v>1.046618331820899</v>
       </c>
       <c r="E15">
-        <v>0.9776743498293835</v>
+        <v>1.046769657462063</v>
       </c>
       <c r="F15">
-        <v>0.981421635301431</v>
+        <v>1.056286975891407</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.989072464104139</v>
+        <v>1.045240518774254</v>
       </c>
       <c r="K15">
-        <v>0.9918603749595442</v>
+        <v>1.050130917673571</v>
       </c>
       <c r="L15">
-        <v>0.9929555970912272</v>
+        <v>1.050281697497583</v>
       </c>
       <c r="M15">
-        <v>0.9966286978879411</v>
+        <v>1.059765034380409</v>
       </c>
       <c r="N15">
-        <v>0.990477060451364</v>
+        <v>1.046724880201676</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9627477102647624</v>
+        <v>1.039588628509276</v>
       </c>
       <c r="D16">
-        <v>0.9806520492909279</v>
+        <v>1.047401441264887</v>
       </c>
       <c r="E16">
-        <v>0.9817103293251399</v>
+        <v>1.047542027462983</v>
       </c>
       <c r="F16">
-        <v>0.9857935213833692</v>
+        <v>1.057129495671544</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9924396631305624</v>
+        <v>1.04588070362447</v>
       </c>
       <c r="K16">
-        <v>0.9953419159942516</v>
+        <v>1.050798806753474</v>
       </c>
       <c r="L16">
-        <v>0.996380177424487</v>
+        <v>1.050938903922176</v>
       </c>
       <c r="M16">
-        <v>1.000386656908951</v>
+        <v>1.060493359633399</v>
       </c>
       <c r="N16">
-        <v>0.9938490412866283</v>
+        <v>1.047365974187811</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9656701918940399</v>
+        <v>1.04012811628432</v>
       </c>
       <c r="D17">
-        <v>0.9831784520367932</v>
+        <v>1.047892738944827</v>
       </c>
       <c r="E17">
-        <v>0.9842003731497394</v>
+        <v>1.048026587395859</v>
       </c>
       <c r="F17">
-        <v>0.9884908849129458</v>
+        <v>1.057658123746516</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9945146786931516</v>
+        <v>1.04628212240886</v>
       </c>
       <c r="K17">
-        <v>0.9974879956914656</v>
+        <v>1.051217650106968</v>
       </c>
       <c r="L17">
-        <v>0.9984912167647987</v>
+        <v>1.05135104372676</v>
       </c>
       <c r="M17">
-        <v>1.002703765451984</v>
+        <v>1.060950182879899</v>
       </c>
       <c r="N17">
-        <v>0.9959270036093238</v>
+        <v>1.047767963032918</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9673565277020758</v>
+        <v>1.040442784168372</v>
       </c>
       <c r="D18">
-        <v>0.9846373846305759</v>
+        <v>1.048179332254409</v>
       </c>
       <c r="E18">
-        <v>0.9856383668077467</v>
+        <v>1.048309250231855</v>
       </c>
       <c r="F18">
-        <v>0.9900486414344269</v>
+        <v>1.057966514356165</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9957121325009407</v>
+        <v>1.046516209300371</v>
       </c>
       <c r="K18">
-        <v>0.9987266727420091</v>
+        <v>1.051461917198398</v>
       </c>
       <c r="L18">
-        <v>0.9997096927288316</v>
+        <v>1.051591399786307</v>
       </c>
       <c r="M18">
-        <v>1.004041388017075</v>
+        <v>1.06121662825493</v>
       </c>
       <c r="N18">
-        <v>0.9971261579388701</v>
+        <v>1.048002382354664</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9679284917214019</v>
+        <v>1.040550076871775</v>
       </c>
       <c r="D19">
-        <v>0.9851324086785381</v>
+        <v>1.048277057963751</v>
       </c>
       <c r="E19">
-        <v>0.9861262955900602</v>
+        <v>1.048405635670002</v>
       </c>
       <c r="F19">
-        <v>0.9905772141136018</v>
+        <v>1.058071676310929</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9961182976106646</v>
+        <v>1.046596017831052</v>
       </c>
       <c r="K19">
-        <v>0.9991468563169577</v>
+        <v>1.051545199754905</v>
       </c>
       <c r="L19">
-        <v>1.000123027506285</v>
+        <v>1.051673348615697</v>
       </c>
       <c r="M19">
-        <v>1.004495175063042</v>
+        <v>1.061307477323299</v>
       </c>
       <c r="N19">
-        <v>0.9975328998496376</v>
+        <v>1.048082304222613</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9653585469734037</v>
+        <v>1.040070235028804</v>
       </c>
       <c r="D20">
-        <v>0.9829089240819131</v>
+        <v>1.047840024515355</v>
       </c>
       <c r="E20">
-        <v>0.9839347180932748</v>
+        <v>1.04797459590962</v>
       </c>
       <c r="F20">
-        <v>0.9882031079707467</v>
+        <v>1.05760140173062</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030192</v>
       </c>
       <c r="J20">
-        <v>0.9942933913955206</v>
+        <v>1.046239059569861</v>
       </c>
       <c r="K20">
-        <v>0.9972591076205083</v>
+        <v>1.051172716044948</v>
       </c>
       <c r="L20">
-        <v>0.9982660633983333</v>
+        <v>1.051306828991292</v>
       </c>
       <c r="M20">
-        <v>1.002456612498975</v>
+        <v>1.060901171324278</v>
       </c>
       <c r="N20">
-        <v>0.9957054020583483</v>
+        <v>1.047724839039747</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9567828340365693</v>
+        <v>1.038510139377035</v>
       </c>
       <c r="D21">
-        <v>0.975503407236438</v>
+        <v>1.046419504311286</v>
       </c>
       <c r="E21">
-        <v>0.9766361842447228</v>
+        <v>1.046573556607911</v>
       </c>
       <c r="F21">
-        <v>0.9802970828084869</v>
+        <v>1.056073082351267</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9882055627325506</v>
+        <v>1.045077913461566</v>
       </c>
       <c r="K21">
-        <v>0.9909642273110053</v>
+        <v>1.049961291936291</v>
       </c>
       <c r="L21">
-        <v>0.9920741352366291</v>
+        <v>1.050114783551098</v>
       </c>
       <c r="M21">
-        <v>0.995661600966492</v>
+        <v>1.059580084006143</v>
       </c>
       <c r="N21">
-        <v>0.9896089279803932</v>
+        <v>1.046562043970793</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9512086825772992</v>
+        <v>1.037529157455005</v>
       </c>
       <c r="D22">
-        <v>0.9707015741615247</v>
+        <v>1.045526593110581</v>
       </c>
       <c r="E22">
-        <v>0.9719043297895021</v>
+        <v>1.045692890434128</v>
       </c>
       <c r="F22">
-        <v>0.975171525843385</v>
+        <v>1.055112599656355</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9842504682787984</v>
+        <v>1.044347348358118</v>
       </c>
       <c r="K22">
-        <v>0.9868766727337434</v>
+        <v>1.049199265728368</v>
       </c>
       <c r="L22">
-        <v>0.9880536982097406</v>
+        <v>1.0493649333783</v>
       </c>
       <c r="M22">
-        <v>0.9912514243400473</v>
+        <v>1.058749334174753</v>
       </c>
       <c r="N22">
-        <v>0.9856482168388611</v>
+        <v>1.045830441381102</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9541818254052407</v>
+        <v>1.038049204410176</v>
       </c>
       <c r="D23">
-        <v>0.9732616247151318</v>
+        <v>1.045999921912478</v>
       </c>
       <c r="E23">
-        <v>0.9744270107445251</v>
+        <v>1.046159728200397</v>
       </c>
       <c r="F23">
-        <v>0.9779040954878544</v>
+        <v>1.055621729948876</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9863598144261307</v>
+        <v>1.044734683763612</v>
       </c>
       <c r="K23">
-        <v>0.9890564663329874</v>
+        <v>1.049603264987206</v>
       </c>
       <c r="L23">
-        <v>0.9901976722654435</v>
+        <v>1.049762478629855</v>
       </c>
       <c r="M23">
-        <v>0.993603064271636</v>
+        <v>1.059189743779694</v>
       </c>
       <c r="N23">
-        <v>0.987760558499668</v>
+        <v>1.046218326847299</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9654994222621007</v>
+        <v>1.040096389095662</v>
       </c>
       <c r="D24">
-        <v>0.9830307573724636</v>
+        <v>1.047863843811324</v>
       </c>
       <c r="E24">
-        <v>0.984054800560769</v>
+        <v>1.04799808854009</v>
       </c>
       <c r="F24">
-        <v>0.9883331899474805</v>
+        <v>1.057627031810961</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.994393421243799</v>
+        <v>1.046258517979599</v>
       </c>
       <c r="K24">
-        <v>0.9973625726309886</v>
+        <v>1.051193019928095</v>
       </c>
       <c r="L24">
-        <v>0.9983678401257251</v>
+        <v>1.051326807844722</v>
       </c>
       <c r="M24">
-        <v>1.002568333126083</v>
+        <v>1.060923317573232</v>
       </c>
       <c r="N24">
-        <v>0.9958055739604846</v>
+        <v>1.04774432508266</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9779216614721565</v>
+        <v>1.042471805672414</v>
       </c>
       <c r="D25">
-        <v>0.9937967670208416</v>
+        <v>1.050027919167128</v>
       </c>
       <c r="E25">
-        <v>0.9946672175147564</v>
+        <v>1.050132482710052</v>
       </c>
       <c r="F25">
-        <v>0.9998303255604503</v>
+        <v>1.059956078459364</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>1.003215600053209</v>
+        <v>1.048024739200764</v>
       </c>
       <c r="K25">
-        <v>1.006492149558486</v>
+        <v>1.053036395380807</v>
       </c>
       <c r="L25">
-        <v>1.007348886021048</v>
+        <v>1.053140639990816</v>
       </c>
       <c r="M25">
-        <v>1.012431276077145</v>
+        <v>1.062934578261755</v>
       </c>
       <c r="N25">
-        <v>1.004640281275722</v>
+        <v>1.049513054540547</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_231/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_231/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044366416687426</v>
+        <v>0.9873342166375085</v>
       </c>
       <c r="D2">
-        <v>1.051754987288968</v>
+        <v>1.001984396562565</v>
       </c>
       <c r="E2">
-        <v>1.051835858366668</v>
+        <v>1.002739444335636</v>
       </c>
       <c r="F2">
-        <v>1.061815470365856</v>
+        <v>1.00857747860301</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.049431886253281</v>
+        <v>1.009900473272097</v>
       </c>
       <c r="K2">
-        <v>1.05450561112702</v>
+        <v>1.013416154646105</v>
       </c>
       <c r="L2">
-        <v>1.054586258161316</v>
+        <v>1.014160745827372</v>
       </c>
       <c r="M2">
-        <v>1.064538506498105</v>
+        <v>1.019918595061197</v>
       </c>
       <c r="N2">
-        <v>1.050922199903281</v>
+        <v>1.011334647781346</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045742149378772</v>
+        <v>0.9939145218351351</v>
       </c>
       <c r="D3">
-        <v>1.05300963872044</v>
+        <v>1.007723741576856</v>
       </c>
       <c r="E3">
-        <v>1.053073294039902</v>
+        <v>1.008398565358657</v>
       </c>
       <c r="F3">
-        <v>1.063166637302955</v>
+        <v>1.014711255728346</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.050452735914316</v>
+        <v>1.014572469170605</v>
       </c>
       <c r="K3">
-        <v>1.055571836503854</v>
+        <v>1.018258740436291</v>
       </c>
       <c r="L3">
-        <v>1.055635328350022</v>
+        <v>1.018925101078133</v>
       </c>
       <c r="M3">
-        <v>1.065703017744349</v>
+        <v>1.025159300994037</v>
       </c>
       <c r="N3">
-        <v>1.051944499287927</v>
+        <v>1.016013278449916</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046632404330529</v>
+        <v>0.9980645529117845</v>
       </c>
       <c r="D4">
-        <v>1.053821801990218</v>
+        <v>1.011349939205477</v>
       </c>
       <c r="E4">
-        <v>1.05387431091859</v>
+        <v>1.011974345024054</v>
       </c>
       <c r="F4">
-        <v>1.064041456525528</v>
+        <v>1.018587747125425</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.051112912620486</v>
+        <v>1.017517897534574</v>
       </c>
       <c r="K4">
-        <v>1.056261517196469</v>
+        <v>1.021313283595791</v>
       </c>
       <c r="L4">
-        <v>1.05631389812942</v>
+        <v>1.021930366909205</v>
       </c>
       <c r="M4">
-        <v>1.066456516076861</v>
+        <v>1.028466893410623</v>
       </c>
       <c r="N4">
-        <v>1.052605613520744</v>
+        <v>1.018962889660007</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047006686586925</v>
+        <v>0.9997847227108171</v>
       </c>
       <c r="D5">
-        <v>1.054163314693474</v>
+        <v>1.012854472048595</v>
       </c>
       <c r="E5">
-        <v>1.054211135995032</v>
+        <v>1.01345801786265</v>
       </c>
       <c r="F5">
-        <v>1.06440935887725</v>
+        <v>1.02019639748934</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.051390362047623</v>
+        <v>1.018738444766814</v>
       </c>
       <c r="K5">
-        <v>1.056551404318079</v>
+        <v>1.022579418255335</v>
       </c>
       <c r="L5">
-        <v>1.056599111670253</v>
+        <v>1.023176088398495</v>
       </c>
       <c r="M5">
-        <v>1.066773285011319</v>
+        <v>1.029838383792074</v>
       </c>
       <c r="N5">
-        <v>1.052883456957891</v>
+        <v>1.020185170209315</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04706953145298</v>
+        <v>1.00007214653154</v>
       </c>
       <c r="D6">
-        <v>1.054220660905101</v>
+        <v>1.013105950390684</v>
       </c>
       <c r="E6">
-        <v>1.054267695032026</v>
+        <v>1.013706012808058</v>
       </c>
       <c r="F6">
-        <v>1.064471138912839</v>
+        <v>1.020465294829386</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.051436941886826</v>
+        <v>1.018942365948416</v>
       </c>
       <c r="K6">
-        <v>1.056600074507989</v>
+        <v>1.0227909776244</v>
       </c>
       <c r="L6">
-        <v>1.056646996993568</v>
+        <v>1.023384237562937</v>
       </c>
       <c r="M6">
-        <v>1.066826471881925</v>
+        <v>1.030067574502731</v>
       </c>
       <c r="N6">
-        <v>1.052930102945808</v>
+        <v>1.020389380982386</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046637405428699</v>
+        <v>0.9980876325100173</v>
       </c>
       <c r="D7">
-        <v>1.05382636498488</v>
+        <v>1.011370119802945</v>
       </c>
       <c r="E7">
-        <v>1.053878811283686</v>
+        <v>1.011994245597289</v>
       </c>
       <c r="F7">
-        <v>1.064046371946768</v>
+        <v>1.018609323197691</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023442985510381</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.051116620259462</v>
+        <v>1.017534275016536</v>
       </c>
       <c r="K7">
-        <v>1.05626539089405</v>
+        <v>1.021330271312255</v>
       </c>
       <c r="L7">
-        <v>1.056317709388508</v>
+        <v>1.021947080696685</v>
       </c>
       <c r="M7">
-        <v>1.066460748762541</v>
+        <v>1.028485292843989</v>
       </c>
       <c r="N7">
-        <v>1.052609326424992</v>
+        <v>1.018979290399872</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044831341031003</v>
+        <v>0.9895812218374359</v>
       </c>
       <c r="D8">
-        <v>1.052178937991249</v>
+        <v>1.003942809401997</v>
       </c>
       <c r="E8">
-        <v>1.052253992242456</v>
+        <v>1.004670422586723</v>
       </c>
       <c r="F8">
-        <v>1.062271996856341</v>
+        <v>1.010670258909228</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.049776967580925</v>
+        <v>1.011496028841661</v>
       </c>
       <c r="K8">
-        <v>1.054865997819324</v>
+        <v>1.015069636397281</v>
       </c>
       <c r="L8">
-        <v>1.054940849278644</v>
+        <v>1.015787499514507</v>
       </c>
       <c r="M8">
-        <v>1.064932063894522</v>
+        <v>1.021707608837959</v>
       </c>
       <c r="N8">
-        <v>1.051267771285991</v>
+        <v>1.012932469222833</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041649145447721</v>
+        <v>0.9737009427242277</v>
       </c>
       <c r="D9">
-        <v>1.049278291101655</v>
+        <v>0.9901337225300261</v>
       </c>
       <c r="E9">
-        <v>1.049393136725764</v>
+        <v>0.9910561876928943</v>
       </c>
       <c r="F9">
-        <v>1.059149201931629</v>
+        <v>0.9959179956356934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.047413299785727</v>
+        <v>1.000217836381083</v>
       </c>
       <c r="K9">
-        <v>1.052398153224373</v>
+        <v>1.003388927487131</v>
       </c>
       <c r="L9">
-        <v>1.052512634553902</v>
+        <v>1.004296058088008</v>
       </c>
       <c r="M9">
-        <v>1.062238068275243</v>
+        <v>1.009077649522029</v>
       </c>
       <c r="N9">
-        <v>1.048900746811407</v>
+        <v>1.001638260435333</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039527660251703</v>
+        <v>0.9624149104725679</v>
       </c>
       <c r="D10">
-        <v>1.047345923567211</v>
+        <v>0.9803645128550458</v>
       </c>
       <c r="E10">
-        <v>1.047487271135893</v>
+        <v>0.9814269390738504</v>
       </c>
       <c r="F10">
-        <v>1.057069762400187</v>
+        <v>0.9854865405863305</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.045835332076313</v>
+        <v>0.9922033886740712</v>
       </c>
       <c r="K10">
-        <v>1.050751468326264</v>
+        <v>0.9950975791139338</v>
       </c>
       <c r="L10">
-        <v>1.050892322931897</v>
+        <v>0.9961398333484062</v>
       </c>
       <c r="M10">
-        <v>1.060441732524758</v>
+        <v>1.000122879454638</v>
       </c>
       <c r="N10">
-        <v>1.04732053820685</v>
+        <v>0.9936124312933077</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038608975565838</v>
+        <v>0.9573364559857351</v>
       </c>
       <c r="D11">
-        <v>1.046509480238737</v>
+        <v>0.9759808278792708</v>
       </c>
       <c r="E11">
-        <v>1.046662298636129</v>
+        <v>0.9771066739671981</v>
       </c>
       <c r="F11">
-        <v>1.056169875254395</v>
+        <v>0.9808067218478526</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.04515150093701</v>
+        <v>0.9885984748664854</v>
       </c>
       <c r="K11">
-        <v>1.050038055707305</v>
+        <v>0.9913703853452225</v>
       </c>
       <c r="L11">
-        <v>1.050190320172058</v>
+        <v>0.9924736360223225</v>
       </c>
       <c r="M11">
-        <v>1.0596637816879</v>
+        <v>0.9960999051450979</v>
       </c>
       <c r="N11">
-        <v>1.046635735948893</v>
+        <v>0.9900023980946259</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038267720380208</v>
+        <v>0.955418839107072</v>
       </c>
       <c r="D12">
-        <v>1.046198827334765</v>
+        <v>0.9743275430525116</v>
       </c>
       <c r="E12">
-        <v>1.046355905913463</v>
+        <v>0.9754774109721335</v>
       </c>
       <c r="F12">
-        <v>1.055835692144694</v>
+        <v>0.9790418921804417</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.04489740832854</v>
+        <v>0.9872375876982113</v>
       </c>
       <c r="K12">
-        <v>1.049773001264149</v>
+        <v>0.9899636873632743</v>
       </c>
       <c r="L12">
-        <v>1.04992950245072</v>
+        <v>0.9910900038996117</v>
       </c>
       <c r="M12">
-        <v>1.059374793956056</v>
+        <v>0.9945819411189722</v>
       </c>
       <c r="N12">
-        <v>1.046381282499774</v>
+        <v>0.9886395783104768</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03834092151968</v>
+        <v>0.9558316315632286</v>
       </c>
       <c r="D13">
-        <v>1.046265461708765</v>
+        <v>0.9746833422115584</v>
       </c>
       <c r="E13">
-        <v>1.046421626489291</v>
+        <v>0.9758280356033954</v>
       </c>
       <c r="F13">
-        <v>1.055907372219209</v>
+        <v>0.9794216905174066</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.044951916053831</v>
+        <v>0.9875305202114548</v>
       </c>
       <c r="K13">
-        <v>1.049829859162049</v>
+        <v>0.9902664646906577</v>
       </c>
       <c r="L13">
-        <v>1.049985451619735</v>
+        <v>0.991387814396344</v>
       </c>
       <c r="M13">
-        <v>1.059436783860783</v>
+        <v>0.994908650826357</v>
       </c>
       <c r="N13">
-        <v>1.046435867632287</v>
+        <v>0.9889329268214887</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038580767634265</v>
+        <v>0.9571785980530223</v>
       </c>
       <c r="D14">
-        <v>1.046483800788705</v>
+        <v>0.9758446884617835</v>
       </c>
       <c r="E14">
-        <v>1.046636971345522</v>
+        <v>0.9769725104587529</v>
       </c>
       <c r="F14">
-        <v>1.056142250064666</v>
+        <v>0.9806613945272671</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.045130499360716</v>
+        <v>0.9884864396036994</v>
       </c>
       <c r="K14">
-        <v>1.050016147491192</v>
+        <v>0.9912545715160948</v>
       </c>
       <c r="L14">
-        <v>1.050168762192915</v>
+        <v>0.9923597202598382</v>
       </c>
       <c r="M14">
-        <v>1.059639894342762</v>
+        <v>0.9959749233344682</v>
       </c>
       <c r="N14">
-        <v>1.046614704547952</v>
+        <v>0.9898902037289161</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038728542642933</v>
+        <v>0.9580042883807428</v>
       </c>
       <c r="D15">
-        <v>1.046618331820899</v>
+        <v>0.976556859919127</v>
       </c>
       <c r="E15">
-        <v>1.046769657462063</v>
+        <v>0.977674349829382</v>
       </c>
       <c r="F15">
-        <v>1.056286975891407</v>
+        <v>0.981421635301429</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.045240518774254</v>
+        <v>0.9890724641041372</v>
       </c>
       <c r="K15">
-        <v>1.050130917673571</v>
+        <v>0.9918603749595426</v>
       </c>
       <c r="L15">
-        <v>1.050281697497583</v>
+        <v>0.9929555970912253</v>
       </c>
       <c r="M15">
-        <v>1.059765034380409</v>
+        <v>0.9966286978879391</v>
       </c>
       <c r="N15">
-        <v>1.046724880201676</v>
+        <v>0.9904770604513623</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039588628509276</v>
+        <v>0.9627477102647622</v>
       </c>
       <c r="D16">
-        <v>1.047401441264887</v>
+        <v>0.9806520492909278</v>
       </c>
       <c r="E16">
-        <v>1.047542027462983</v>
+        <v>0.9817103293251396</v>
       </c>
       <c r="F16">
-        <v>1.057129495671544</v>
+        <v>0.9857935213833688</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.04588070362447</v>
+        <v>0.9924396631305622</v>
       </c>
       <c r="K16">
-        <v>1.050798806753474</v>
+        <v>0.9953419159942514</v>
       </c>
       <c r="L16">
-        <v>1.050938903922176</v>
+        <v>0.9963801774244867</v>
       </c>
       <c r="M16">
-        <v>1.060493359633399</v>
+        <v>1.000386656908951</v>
       </c>
       <c r="N16">
-        <v>1.047365974187811</v>
+        <v>0.9938490412866281</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04012811628432</v>
+        <v>0.9656701918940407</v>
       </c>
       <c r="D17">
-        <v>1.047892738944827</v>
+        <v>0.9831784520367937</v>
       </c>
       <c r="E17">
-        <v>1.048026587395859</v>
+        <v>0.9842003731497401</v>
       </c>
       <c r="F17">
-        <v>1.057658123746516</v>
+        <v>0.9884908849129465</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.04628212240886</v>
+        <v>0.9945146786931522</v>
       </c>
       <c r="K17">
-        <v>1.051217650106968</v>
+        <v>0.9974879956914663</v>
       </c>
       <c r="L17">
-        <v>1.05135104372676</v>
+        <v>0.9984912167647991</v>
       </c>
       <c r="M17">
-        <v>1.060950182879899</v>
+        <v>1.002703765451985</v>
       </c>
       <c r="N17">
-        <v>1.047767963032918</v>
+        <v>0.9959270036093247</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040442784168372</v>
+        <v>0.9673565277020764</v>
       </c>
       <c r="D18">
-        <v>1.048179332254409</v>
+        <v>0.9846373846305763</v>
       </c>
       <c r="E18">
-        <v>1.048309250231855</v>
+        <v>0.985638366807747</v>
       </c>
       <c r="F18">
-        <v>1.057966514356165</v>
+        <v>0.9900486414344269</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.046516209300371</v>
+        <v>0.9957121325009411</v>
       </c>
       <c r="K18">
-        <v>1.051461917198398</v>
+        <v>0.9987266727420093</v>
       </c>
       <c r="L18">
-        <v>1.051591399786307</v>
+        <v>0.9997096927288317</v>
       </c>
       <c r="M18">
-        <v>1.06121662825493</v>
+        <v>1.004041388017076</v>
       </c>
       <c r="N18">
-        <v>1.048002382354664</v>
+        <v>0.9971261579388706</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040550076871775</v>
+        <v>0.9679284917214022</v>
       </c>
       <c r="D19">
-        <v>1.048277057963751</v>
+        <v>0.9851324086785384</v>
       </c>
       <c r="E19">
-        <v>1.048405635670002</v>
+        <v>0.9861262955900603</v>
       </c>
       <c r="F19">
-        <v>1.058071676310929</v>
+        <v>0.990577214113602</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>1.046596017831052</v>
+        <v>0.9961182976106647</v>
       </c>
       <c r="K19">
-        <v>1.051545199754905</v>
+        <v>0.9991468563169579</v>
       </c>
       <c r="L19">
-        <v>1.051673348615697</v>
+        <v>1.000123027506285</v>
       </c>
       <c r="M19">
-        <v>1.061307477323299</v>
+        <v>1.004495175063042</v>
       </c>
       <c r="N19">
-        <v>1.048082304222613</v>
+        <v>0.9975328998496378</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040070235028804</v>
+        <v>0.9653585469734034</v>
       </c>
       <c r="D20">
-        <v>1.047840024515355</v>
+        <v>0.982908924081913</v>
       </c>
       <c r="E20">
-        <v>1.04797459590962</v>
+        <v>0.9839347180932744</v>
       </c>
       <c r="F20">
-        <v>1.05760140173062</v>
+        <v>0.9882031079707465</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030192</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.046239059569861</v>
+        <v>0.9942933913955203</v>
       </c>
       <c r="K20">
-        <v>1.051172716044948</v>
+        <v>0.9972591076205081</v>
       </c>
       <c r="L20">
-        <v>1.051306828991292</v>
+        <v>0.998266063398333</v>
       </c>
       <c r="M20">
-        <v>1.060901171324278</v>
+        <v>1.002456612498975</v>
       </c>
       <c r="N20">
-        <v>1.047724839039747</v>
+        <v>0.995705402058348</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038510139377035</v>
+        <v>0.9567828340365697</v>
       </c>
       <c r="D21">
-        <v>1.046419504311286</v>
+        <v>0.9755034072364385</v>
       </c>
       <c r="E21">
-        <v>1.046573556607911</v>
+        <v>0.9766361842447234</v>
       </c>
       <c r="F21">
-        <v>1.056073082351267</v>
+        <v>0.9802970828084875</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.045077913461566</v>
+        <v>0.9882055627325511</v>
       </c>
       <c r="K21">
-        <v>1.049961291936291</v>
+        <v>0.9909642273110058</v>
       </c>
       <c r="L21">
-        <v>1.050114783551098</v>
+        <v>0.9920741352366298</v>
       </c>
       <c r="M21">
-        <v>1.059580084006143</v>
+        <v>0.9956616009664926</v>
       </c>
       <c r="N21">
-        <v>1.046562043970793</v>
+        <v>0.9896089279803936</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037529157455005</v>
+        <v>0.9512086825772995</v>
       </c>
       <c r="D22">
-        <v>1.045526593110581</v>
+        <v>0.9707015741615254</v>
       </c>
       <c r="E22">
-        <v>1.045692890434128</v>
+        <v>0.9719043297895024</v>
       </c>
       <c r="F22">
-        <v>1.055112599656355</v>
+        <v>0.9751715258433851</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.044347348358118</v>
+        <v>0.9842504682787986</v>
       </c>
       <c r="K22">
-        <v>1.049199265728368</v>
+        <v>0.9868766727337436</v>
       </c>
       <c r="L22">
-        <v>1.0493649333783</v>
+        <v>0.988053698209741</v>
       </c>
       <c r="M22">
-        <v>1.058749334174753</v>
+        <v>0.9912514243400476</v>
       </c>
       <c r="N22">
-        <v>1.045830441381102</v>
+        <v>0.9856482168388611</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038049204410176</v>
+        <v>0.9541818254052392</v>
       </c>
       <c r="D23">
-        <v>1.045999921912478</v>
+        <v>0.9732616247151306</v>
       </c>
       <c r="E23">
-        <v>1.046159728200397</v>
+        <v>0.9744270107445236</v>
       </c>
       <c r="F23">
-        <v>1.055621729948876</v>
+        <v>0.9779040954878533</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.044734683763612</v>
+        <v>0.9863598144261294</v>
       </c>
       <c r="K23">
-        <v>1.049603264987206</v>
+        <v>0.9890564663329861</v>
       </c>
       <c r="L23">
-        <v>1.049762478629855</v>
+        <v>0.9901976722654422</v>
       </c>
       <c r="M23">
-        <v>1.059189743779694</v>
+        <v>0.993603064271635</v>
       </c>
       <c r="N23">
-        <v>1.046218326847299</v>
+        <v>0.9877605584996666</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040096389095662</v>
+        <v>0.9654994222621019</v>
       </c>
       <c r="D24">
-        <v>1.047863843811324</v>
+        <v>0.9830307573724645</v>
       </c>
       <c r="E24">
-        <v>1.04799808854009</v>
+        <v>0.9840548005607701</v>
       </c>
       <c r="F24">
-        <v>1.057627031810961</v>
+        <v>0.9883331899474816</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.046258517979599</v>
+        <v>0.9943934212438</v>
       </c>
       <c r="K24">
-        <v>1.051193019928095</v>
+        <v>0.9973625726309895</v>
       </c>
       <c r="L24">
-        <v>1.051326807844722</v>
+        <v>0.9983678401257262</v>
       </c>
       <c r="M24">
-        <v>1.060923317573232</v>
+        <v>1.002568333126084</v>
       </c>
       <c r="N24">
-        <v>1.04774432508266</v>
+        <v>0.9958055739604855</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042471805672414</v>
+        <v>0.977921661472155</v>
       </c>
       <c r="D25">
-        <v>1.050027919167128</v>
+        <v>0.9937967670208401</v>
       </c>
       <c r="E25">
-        <v>1.050132482710052</v>
+        <v>0.9946672175147546</v>
       </c>
       <c r="F25">
-        <v>1.059956078459364</v>
+        <v>0.9998303255604485</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.048024739200764</v>
+        <v>1.003215600053207</v>
       </c>
       <c r="K25">
-        <v>1.053036395380807</v>
+        <v>1.006492149558485</v>
       </c>
       <c r="L25">
-        <v>1.053140639990816</v>
+        <v>1.007348886021047</v>
       </c>
       <c r="M25">
-        <v>1.062934578261755</v>
+        <v>1.012431276077143</v>
       </c>
       <c r="N25">
-        <v>1.049513054540547</v>
+        <v>1.004640281275721</v>
       </c>
     </row>
   </sheetData>
